--- a/data/referees.xlsx
+++ b/data/referees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E0F503-8D60-4C4D-97F2-015AA09B835D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79FE5B7-FEB2-43F0-9B4C-5E76F19A078E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="10640" windowWidth="15830" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="18870" yWindow="5820" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,21 +95,6 @@
     <t>Prof Cliona O'Farrelly</t>
   </si>
   <si>
-    <t>Professor of Immunobiology</t>
-  </si>
-  <si>
-    <t>Sir Henry Dale Fellow</t>
-  </si>
-  <si>
-    <t>Professor of Experimental Immunology</t>
-  </si>
-  <si>
-    <t>Professor of Comparative Immunology</t>
-  </si>
-  <si>
-    <t>Lydia Becker Institute of Immunology and Inflammation</t>
-  </si>
-  <si>
     <t>University of Manchester</t>
   </si>
   <si>
@@ -128,26 +113,29 @@
     <t xml:space="preserve">kingston.mills@tcd.ie </t>
   </si>
   <si>
-    <r>
-      <t>ofarrecl@tcd.ie</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>Lydia Becker Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor of Immunobiology; judi.allen@manchester.ac.uk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Henry Dale Fellow; matthew.hepworth@manchester.ac.uk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor of Experimental Immunology; kingston.mills@tcd.ie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ofarrecl@tcd.ie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor of Comparative Immunology; ofarrecl@tcd.ie </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,20 +164,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,12 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,15 +475,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.81640625" customWidth="1"/>
     <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -569,16 +543,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
@@ -586,16 +560,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.45">
@@ -603,16 +577,16 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.45">
@@ -620,23 +594,24 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="mailto:judi.allen@manchester.ac.uk" xr:uid="{75A2895C-0CC8-4C8C-BFE8-90AEE8575DAF}"/>
-    <hyperlink ref="E5" r:id="rId2" display="mailto:matthew.hepworth@manchester.ac.uk" xr:uid="{7EF6E3F5-2277-4E0C-B4FA-FEDF759918B1}"/>
-    <hyperlink ref="E6" r:id="rId3" display="mailto:kingston.mills@tcd.ie" xr:uid="{EA65F49A-0696-4769-B0A7-921FF7327F96}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{75A2895C-0CC8-4C8C-BFE8-90AEE8575DAF}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{7EF6E3F5-2277-4E0C-B4FA-FEDF759918B1}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{EA65F49A-0696-4769-B0A7-921FF7327F96}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{C52B6618-3ECC-4E5E-9391-FBAF30C98D2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/referees.xlsx
+++ b/data/referees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79FE5B7-FEB2-43F0-9B4C-5E76F19A078E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E0E6F-E466-4CAA-8D83-64AEFD534769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18870" yWindow="5820" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18870" yWindow="5820" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/referees.xlsx
+++ b/data/referees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E0E6F-E466-4CAA-8D83-64AEFD534769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DDF4C-DFCC-BE47-8D05-00E44F1A9BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18870" yWindow="5820" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11720" yWindow="5320" windowWidth="18820" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>with</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t xml:space="preserve">Professor of Comparative Immunology; ofarrecl@tcd.ie </t>
+  </si>
+  <si>
+    <t>Prof Mark A Little</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Professor of Nephrology</t>
+  </si>
+  <si>
+    <t>School of Medicine, Tallaght University Hospital</t>
+  </si>
+  <si>
+    <t>mlittle@tcd.ie</t>
   </si>
 </sst>
 </file>
@@ -472,22 +484,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.81640625" customWidth="1"/>
-    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -521,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -538,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -555,24 +567,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -589,29 +601,47 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{75A2895C-0CC8-4C8C-BFE8-90AEE8575DAF}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{7EF6E3F5-2277-4E0C-B4FA-FEDF759918B1}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{7EF6E3F5-2277-4E0C-B4FA-FEDF759918B1}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{EA65F49A-0696-4769-B0A7-921FF7327F96}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{C52B6618-3ECC-4E5E-9391-FBAF30C98D2B}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{C52B6618-3ECC-4E5E-9391-FBAF30C98D2B}"/>
+    <hyperlink ref="E5" r:id="rId5" display="mailto:mlittle@tcd.ie" xr:uid="{184F9AD1-BD69-BE4F-88B1-752A4B29B371}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/referees.xlsx
+++ b/data/referees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DDF4C-DFCC-BE47-8D05-00E44F1A9BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DB6F1-D6D4-3B47-8074-A44300988204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11720" yWindow="5320" windowWidth="18820" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -568,37 +568,37 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -639,9 +639,9 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{75A2895C-0CC8-4C8C-BFE8-90AEE8575DAF}"/>
     <hyperlink ref="E7" r:id="rId2" xr:uid="{7EF6E3F5-2277-4E0C-B4FA-FEDF759918B1}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{EA65F49A-0696-4769-B0A7-921FF7327F96}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{EA65F49A-0696-4769-B0A7-921FF7327F96}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{C52B6618-3ECC-4E5E-9391-FBAF30C98D2B}"/>
-    <hyperlink ref="E5" r:id="rId5" display="mailto:mlittle@tcd.ie" xr:uid="{184F9AD1-BD69-BE4F-88B1-752A4B29B371}"/>
+    <hyperlink ref="E6" r:id="rId5" display="mailto:mlittle@tcd.ie" xr:uid="{184F9AD1-BD69-BE4F-88B1-752A4B29B371}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
